--- a/python/odoo/GoodsERP 模块笔记.xlsx
+++ b/python/odoo/GoodsERP 模块笔记.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="314">
   <si>
     <t xml:space="preserve">#core.core.py</t>
   </si>
@@ -1630,31 +1630,540 @@
     <t xml:space="preserve">商品</t>
   </si>
   <si>
+    <t xml:space="preserve">no_stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虚拟商品</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_inherit = </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'goods'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">using_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理批号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force_batch_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理序列号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fields.One2many(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'attribute'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'goods_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u'</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">属性</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">默认供应商</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fields.Many2one(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'partner'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u'</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">默认供应商</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ondelete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'restrict'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">domain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=[(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'s_category_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'!='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_class_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fields.Many2one(
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'goods.class'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u'</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="AR PL UKai CN"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">商品分类</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"Those categories are used to group similar products for point of sale."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">零售价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">条形码</t>
+  </si>
+  <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
     <t xml:space="preserve">编号</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">_inherit = </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">'goods'</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">category_id</t>
@@ -2651,6 +3160,94 @@
   </si>
   <si>
     <t xml:space="preserve">成本</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">fields.Float(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">u'</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="AR PL UKai HK"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">成本</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008080"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">,
+                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF660099"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">digits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">=dp.get_precision(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">'Price'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">))</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">cost_method</t>
@@ -3230,7 +3827,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">supplier_commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理结算</t>
+  </si>
+  <si>
     <t xml:space="preserve">addons/core/models/goods.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myaddons/goods/models/goods.py</t>
   </si>
   <si>
     <t xml:space="preserve">Partner
@@ -4448,6 +5054,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Boolean(
     </t>
@@ -4459,6 +5066,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Is Follower'</t>
     </r>
@@ -4468,6 +5076,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4477,6 +5086,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -4486,6 +5096,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4496,6 +5107,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_is_follower'</t>
     </r>
@@ -4505,6 +5117,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4514,6 +5127,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search</t>
     </r>
@@ -4523,6 +5137,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4533,6 +5148,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_search_is_follower'</t>
     </r>
@@ -4542,6 +5158,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4556,6 +5173,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.One2many(
     </t>
@@ -4567,6 +5185,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'mail.followers'</t>
     </r>
@@ -4576,6 +5195,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4586,6 +5206,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res_id'</t>
     </r>
@@ -4595,6 +5216,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4604,6 +5226,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -4613,6 +5236,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4623,6 +5247,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Followers'</t>
     </r>
@@ -4632,6 +5257,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -4642,6 +5268,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">domain</t>
     </r>
@@ -4651,6 +5278,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4661,6 +5289,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">lambda </t>
     </r>
@@ -4670,6 +5299,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">self: [(</t>
     </r>
@@ -4680,6 +5310,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res_model'</t>
     </r>
@@ -4689,6 +5320,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4699,6 +5331,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'='</t>
     </r>
@@ -4708,6 +5341,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, self._name)])</t>
     </r>
@@ -4722,6 +5356,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2many(
     </t>
@@ -4732,6 +5367,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">comodel_name</t>
     </r>
@@ -4741,6 +5377,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4751,6 +5388,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.partner'</t>
     </r>
@@ -4760,6 +5398,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4769,6 +5408,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -4778,6 +5418,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4788,6 +5429,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Followers (Partners)'</t>
     </r>
@@ -4797,6 +5439,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -4807,6 +5450,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -4816,6 +5460,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4826,6 +5471,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_followers'</t>
     </r>
@@ -4835,6 +5481,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4844,6 +5491,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search</t>
     </r>
@@ -4853,6 +5501,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4863,6 +5512,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_search_follower_partners'</t>
     </r>
@@ -4872,6 +5522,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4886,6 +5537,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2many(
     </t>
@@ -4896,6 +5548,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">comodel_name</t>
     </r>
@@ -4905,6 +5558,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4915,6 +5569,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'mail.channel'</t>
     </r>
@@ -4924,6 +5579,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4933,6 +5589,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -4942,6 +5599,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4952,6 +5610,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Followers (Channels)'</t>
     </r>
@@ -4961,6 +5620,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -4971,6 +5631,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -4980,6 +5641,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -4990,6 +5652,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_followers'</t>
     </r>
@@ -4999,6 +5662,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5008,6 +5672,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search</t>
     </r>
@@ -5017,6 +5682,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5027,6 +5693,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_search_follower_channels'</t>
     </r>
@@ -5036,6 +5703,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5050,6 +5718,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.One2many(
     </t>
@@ -5061,6 +5730,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'mail.message'</t>
     </r>
@@ -5070,6 +5740,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5080,6 +5751,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res_id'</t>
     </r>
@@ -5089,6 +5761,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5098,6 +5771,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -5107,6 +5781,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5117,6 +5792,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Messages'</t>
     </r>
@@ -5126,6 +5802,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -5136,6 +5813,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">domain</t>
     </r>
@@ -5145,6 +5823,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5155,6 +5834,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">lambda </t>
     </r>
@@ -5164,6 +5844,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">self: [(</t>
     </r>
@@ -5174,6 +5855,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'model'</t>
     </r>
@@ -5183,6 +5865,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5193,6 +5876,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'='</t>
     </r>
@@ -5202,6 +5886,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, self._name)], </t>
     </r>
@@ -5211,6 +5896,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">auto_join</t>
     </r>
@@ -5220,6 +5906,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5229,6 +5916,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -5238,6 +5926,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5252,6 +5941,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Datetime(</t>
     </r>
@@ -5262,6 +5952,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Last Message Date'</t>
     </r>
@@ -5271,6 +5962,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5280,6 +5972,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -5289,6 +5982,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5299,6 +5993,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Date of the last message posted on the record.'</t>
     </r>
@@ -5308,6 +6003,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)
 message_unread = fields.Boolean(
@@ -5320,6 +6016,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Unread Messages'</t>
     </r>
@@ -5329,6 +6026,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5338,6 +6036,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -5347,6 +6046,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5357,6 +6057,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_message_unread'</t>
     </r>
@@ -5366,6 +6067,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -5376,6 +6078,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -5385,6 +6088,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5395,6 +6099,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"If checked new messages require your attention."</t>
     </r>
@@ -5404,6 +6109,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5418,6 +6124,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Integer(
     </t>
@@ -5429,6 +6136,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Unread Messages Counter'</t>
     </r>
@@ -5438,6 +6146,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5447,6 +6156,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -5456,6 +6166,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5466,6 +6177,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_message_unread'</t>
     </r>
@@ -5475,6 +6187,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -5485,6 +6198,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -5494,6 +6208,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5504,6 +6219,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Number of unread messages"</t>
     </r>
@@ -5513,6 +6229,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5527,6 +6244,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Boolean(
     </t>
@@ -5538,6 +6256,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Action Needed'</t>
     </r>
@@ -5547,6 +6266,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5556,6 +6276,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -5565,6 +6286,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5575,6 +6297,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_message_needaction'</t>
     </r>
@@ -5584,6 +6307,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5593,6 +6317,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">search</t>
     </r>
@@ -5602,6 +6327,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5612,6 +6338,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_search_message_needaction'</t>
     </r>
@@ -5621,6 +6348,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -5631,6 +6359,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -5640,6 +6369,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5650,6 +6380,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"If checked, new messages require your attention."</t>
     </r>
@@ -5659,6 +6390,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -5673,6 +6405,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Integer(
     </t>
@@ -5684,6 +6417,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Number of Actions'</t>
     </r>
@@ -5693,6 +6427,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5702,6 +6437,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -5711,6 +6447,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5721,6 +6458,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_get_message_needaction'</t>
     </r>
@@ -5730,6 +6468,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -5740,6 +6479,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -5749,6 +6489,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5759,6 +6500,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Number of messages which requires an action"</t>
     </r>
@@ -5768,9 +6510,13 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否</t>
   </si>
   <si>
     <t xml:space="preserve">Pricing
@@ -5798,6 +6544,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -5808,6 +6555,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'warehouse'</t>
     </r>
@@ -5817,6 +6565,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                                </t>
@@ -5828,6 +6577,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">u'</t>
     </r>
@@ -5838,6 +6588,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">仓库</t>
     </r>
@@ -5848,6 +6599,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'</t>
     </r>
@@ -5857,6 +6609,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                                </t>
@@ -5867,6 +6620,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ondelete</t>
     </r>
@@ -5876,6 +6630,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5886,6 +6641,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'restrict'</t>
     </r>
@@ -5895,6 +6651,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                                )</t>
@@ -5910,6 +6667,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -5920,6 +6678,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'core.category'</t>
     </r>
@@ -5929,6 +6688,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -5939,6 +6699,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">u'</t>
     </r>
@@ -5949,6 +6710,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">商品类别</t>
     </r>
@@ -5959,6 +6721,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'</t>
     </r>
@@ -5968,6 +6731,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                                     </t>
@@ -5978,6 +6742,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ondelete</t>
     </r>
@@ -5987,6 +6752,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -5997,6 +6763,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'restrict'</t>
     </r>
@@ -6006,6 +6773,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                                     </t>
@@ -6016,6 +6784,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">domain</t>
     </r>
@@ -6025,6 +6794,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=[(</t>
     </r>
@@ -6035,6 +6805,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'type'</t>
     </r>
@@ -6044,6 +6815,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6054,6 +6826,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'='</t>
     </r>
@@ -6063,6 +6836,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6073,6 +6847,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'goods'</t>
     </r>
@@ -6082,6 +6857,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)],
                                     </t>
@@ -6092,6 +6868,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">context</t>
     </r>
@@ -6101,6 +6878,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">={</t>
     </r>
@@ -6111,6 +6889,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'type'</t>
     </r>
@@ -6120,6 +6899,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -6130,6 +6910,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'goods'</t>
     </r>
@@ -6139,6 +6920,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">})</t>
     </r>
@@ -6153,6 +6935,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -6163,6 +6946,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'goods'</t>
     </r>
@@ -6172,6 +6956,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                            </t>
@@ -6183,6 +6968,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">u'</t>
     </r>
@@ -6193,6 +6979,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">商品</t>
     </r>
@@ -6203,6 +6990,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'</t>
     </r>
@@ -6212,6 +7000,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                            </t>
@@ -6222,6 +7011,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ondelete</t>
     </r>
@@ -6231,6 +7021,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -6241,6 +7032,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'restrict'</t>
     </r>
@@ -6250,6 +7042,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
                            )</t>
@@ -6278,6 +7071,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">折扣率</t>
     </r>
@@ -6288,6 +7082,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">%</t>
     </r>
@@ -6300,8 +7095,9 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">商品的价格</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">商品的价格 </t>
     </r>
     <r>
       <rPr>
@@ -6310,8 +7106,9 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> × </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">× </t>
     </r>
     <r>
       <rPr>
@@ -6320,8 +7117,9 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">折扣率</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">折扣率 </t>
     </r>
     <r>
       <rPr>
@@ -6330,8 +7128,9 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
@@ -6340,6 +7139,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">商品的实际价格</t>
     </r>
@@ -6602,6 +7402,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_inherit = </t>
     </r>
@@ -6612,6 +7413,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.currency'</t>
     </r>
@@ -6635,6 +7437,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Float(</t>
     </r>
@@ -6644,6 +7447,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -6653,6 +7457,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -6663,6 +7468,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_current_rate'</t>
     </r>
@@ -6672,6 +7478,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6681,6 +7488,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -6690,6 +7498,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -6700,6 +7509,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Current Rate'</t>
     </r>
@@ -6709,6 +7519,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6718,6 +7529,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">digits</t>
     </r>
@@ -6727,6 +7539,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=(</t>
     </r>
@@ -6736,6 +7549,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12</t>
     </r>
@@ -6745,6 +7559,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6754,6 +7569,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6</t>
     </r>
@@ -6763,6 +7579,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">),
                     </t>
@@ -6773,6 +7590,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -6782,6 +7600,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -6792,6 +7611,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'The rate of the currency to the currency of rate 1.'</t>
     </r>
@@ -6801,6 +7621,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -6815,6 +7636,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.One2many(</t>
     </r>
@@ -6825,6 +7647,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.currency.rate'</t>
     </r>
@@ -6834,6 +7657,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6844,6 +7668,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'currency_id'</t>
     </r>
@@ -6853,6 +7678,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6862,6 +7688,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -6871,6 +7698,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -6881,6 +7709,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Rates'</t>
     </r>
@@ -6890,6 +7719,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7063,6 +7893,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Integer(</t>
     </r>
@@ -7072,6 +7903,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -7081,6 +7913,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7091,6 +7924,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_decimal_places'</t>
     </r>
@@ -7100,6 +7934,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7112,8 +7947,8 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -7124,6 +7959,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Selection([(</t>
     </r>
@@ -7134,6 +7970,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'after'</t>
     </r>
@@ -7143,6 +7980,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7153,6 +7991,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'After Amount'</t>
     </r>
@@ -7162,6 +8001,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">), (</t>
     </r>
@@ -7172,6 +8012,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'before'</t>
     </r>
@@ -7181,6 +8022,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7191,6 +8033,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Before Amount'</t>
     </r>
@@ -7200,6 +8043,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)], </t>
     </r>
@@ -7209,6 +8053,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -7218,6 +8063,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7228,6 +8074,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'after'</t>
     </r>
@@ -7237,6 +8084,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
     </t>
@@ -7247,6 +8095,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7256,6 +8105,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7266,6 +8116,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Symbol Position'</t>
     </r>
@@ -7275,6 +8126,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7284,6 +8136,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -7293,6 +8146,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7303,6 +8157,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Determines where the currency symbol should be placed after or before the amount."</t>
     </r>
@@ -7312,6 +8167,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7326,6 +8182,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Date(</t>
     </r>
@@ -7335,6 +8192,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -7344,6 +8202,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7354,6 +8213,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_date'</t>
     </r>
@@ -7363,6 +8223,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7387,6 +8248,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_inherit = </t>
     </r>
@@ -7397,6 +8259,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.company'</t>
     </r>
@@ -7482,6 +8345,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -7492,6 +8356,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'bank.account'</t>
     </r>
@@ -7501,6 +8366,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7510,6 +8376,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7519,6 +8386,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7529,6 +8397,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">u'</t>
     </r>
@@ -7539,6 +8408,7 @@
         <color rgb="FF008080"/>
         <rFont val="AR PL UKai HK"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开户行</t>
     </r>
@@ -7549,6 +8419,7 @@
         <color rgb="FF008080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'</t>
     </r>
@@ -7558,6 +8429,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7575,6 +8447,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -7584,6 +8457,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -7593,6 +8467,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7603,6 +8478,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.name'</t>
     </r>
@@ -7612,6 +8488,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7621,6 +8498,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7630,6 +8508,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7640,6 +8519,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Company Name'</t>
     </r>
@@ -7649,6 +8529,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7658,6 +8539,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -7667,6 +8549,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7676,6 +8559,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -7685,6 +8569,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7694,6 +8579,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">store</t>
     </r>
@@ -7703,6 +8589,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7712,6 +8599,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -7721,6 +8609,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7735,6 +8624,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -7745,6 +8635,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.company'</t>
     </r>
@@ -7754,6 +8645,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7763,6 +8655,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7772,6 +8665,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7782,6 +8676,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Parent Company'</t>
     </r>
@@ -7791,6 +8686,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7800,6 +8696,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">index</t>
     </r>
@@ -7809,6 +8706,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7818,6 +8716,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -7827,6 +8726,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7841,6 +8741,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.One2many(</t>
     </r>
@@ -7851,6 +8752,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.company'</t>
     </r>
@@ -7860,6 +8762,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7870,6 +8773,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'parent_id'</t>
     </r>
@@ -7879,6 +8783,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7888,6 +8793,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7897,6 +8803,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7907,6 +8814,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Child Companies'</t>
     </r>
@@ -7916,6 +8824,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -7930,6 +8839,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -7940,6 +8850,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.partner'</t>
     </r>
@@ -7949,6 +8860,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7958,6 +8870,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -7967,6 +8880,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -7977,6 +8891,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Partner'</t>
     </r>
@@ -7986,6 +8901,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7995,6 +8911,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -8004,6 +8921,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8013,6 +8931,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8022,6 +8941,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -8036,6 +8956,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Text(</t>
     </r>
@@ -8045,6 +8966,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -8054,6 +8976,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8063,6 +8986,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8072,6 +8996,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8081,6 +9006,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -8090,6 +9016,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=_get_header)</t>
     </r>
@@ -8107,6 +9034,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -8116,6 +9044,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -8125,6 +9054,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8135,6 +9065,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Company Tagline'</t>
     </r>
@@ -8144,6 +9075,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8153,6 +9085,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -8162,6 +9095,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8172,6 +9106,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Appears by default on the top right corner of your printed documents (report header)."</t>
     </r>
@@ -8181,6 +9116,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -8195,6 +9131,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Text(</t>
     </r>
@@ -8204,6 +9141,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -8213,6 +9151,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8223,6 +9162,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'RML Internal Header'</t>
     </r>
@@ -8232,6 +9172,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8241,6 +9182,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -8250,6 +9192,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8259,6 +9202,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8268,6 +9212,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8277,6 +9222,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -8286,6 +9232,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=_header2)</t>
     </r>
@@ -8300,6 +9247,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Text(</t>
     </r>
@@ -8309,6 +9257,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -8318,6 +9267,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8328,6 +9278,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'RML Internal Header for Landscape Reports'</t>
     </r>
@@ -8337,6 +9288,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8346,6 +9298,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -8355,6 +9308,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8364,6 +9318,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8373,6 +9328,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8382,6 +9338,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -8391,6 +9348,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=_header3)</t>
     </r>
@@ -8405,6 +9363,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Text(</t>
     </r>
@@ -8414,6 +9373,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -8423,6 +9383,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8433,6 +9394,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Custom Report Footer'</t>
     </r>
@@ -8442,6 +9404,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8451,6 +9414,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">translate</t>
     </r>
@@ -8460,6 +9424,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8469,6 +9434,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8478,6 +9444,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8487,6 +9454,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -8496,6 +9464,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8506,6 +9475,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Footer text displayed at the bottom of all reports."</t>
     </r>
@@ -8515,6 +9485,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -8529,6 +9500,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Text(</t>
     </r>
@@ -8538,6 +9510,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -8547,6 +9520,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8557,6 +9531,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'rml_footer'</t>
     </r>
@@ -8566,6 +9541,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8575,6 +9551,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -8584,6 +9561,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8594,6 +9572,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Report Footer'</t>
     </r>
@@ -8603,6 +9582,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8612,6 +9592,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">readonly</t>
     </r>
@@ -8621,6 +9602,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -8630,6 +9612,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -8639,6 +9622,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9003,6 +9987,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Binary(</t>
     </r>
@@ -9012,6 +9997,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -9021,6 +10007,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9031,6 +10018,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.image'</t>
     </r>
@@ -9040,6 +10028,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9049,6 +10038,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -9058,6 +10048,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=_get_logo)</t>
     </r>
@@ -9072,6 +10063,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Binary(</t>
     </r>
@@ -9081,6 +10073,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9090,6 +10083,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9100,6 +10094,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_logo_web'</t>
     </r>
@@ -9109,6 +10104,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9118,6 +10114,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">store</t>
     </r>
@@ -9127,6 +10124,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9136,6 +10134,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -9145,6 +10144,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9159,6 +10159,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -9169,6 +10170,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.currency'</t>
     </r>
@@ -9178,6 +10180,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9187,6 +10190,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -9196,6 +10200,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9206,6 +10211,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Currency'</t>
     </r>
@@ -9215,6 +10221,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9224,6 +10231,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -9233,6 +10241,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9242,6 +10251,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -9251,6 +10261,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9260,6 +10271,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -9269,6 +10281,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9279,6 +10292,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">lambda </t>
     </r>
@@ -9288,6 +10302,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">self: self._get_user_currency())</t>
     </r>
@@ -9302,6 +10317,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2many(</t>
     </r>
@@ -9312,6 +10328,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.users'</t>
     </r>
@@ -9321,6 +10338,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9331,6 +10349,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res_company_users_rel'</t>
     </r>
@@ -9340,6 +10359,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9350,6 +10370,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'cid'</t>
     </r>
@@ -9359,6 +10380,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9369,6 +10391,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'user_id'</t>
     </r>
@@ -9378,6 +10401,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9387,6 +10411,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -9396,6 +10421,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9406,6 +10432,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Accepted Users'</t>
     </r>
@@ -9415,6 +10442,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9429,6 +10457,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -9438,6 +10467,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -9447,6 +10477,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9457,6 +10488,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Account No.'</t>
     </r>
@@ -9466,6 +10498,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9480,6 +10513,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -9489,6 +10523,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9498,6 +10533,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9508,6 +10544,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -9517,6 +10554,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9526,6 +10564,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -9535,6 +10574,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9545,6 +10585,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_street'</t>
     </r>
@@ -9554,6 +10595,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9568,6 +10610,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -9577,6 +10620,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9586,6 +10630,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9596,6 +10641,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -9605,6 +10651,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9614,6 +10661,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -9623,6 +10671,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9633,6 +10682,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_street2'</t>
     </r>
@@ -9642,6 +10692,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9656,6 +10707,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -9665,6 +10717,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9674,6 +10727,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9684,6 +10738,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -9693,6 +10748,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9702,6 +10758,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -9711,6 +10768,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9721,6 +10779,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_zip'</t>
     </r>
@@ -9730,6 +10789,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9744,6 +10804,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -9753,6 +10814,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9762,6 +10824,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9772,6 +10835,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -9781,6 +10845,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9790,6 +10855,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -9799,6 +10865,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9809,6 +10876,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_city'</t>
     </r>
@@ -9818,6 +10886,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9832,6 +10901,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -9842,6 +10912,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.country.state'</t>
     </r>
@@ -9851,6 +10922,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9860,6 +10932,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -9869,6 +10942,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9879,6 +10953,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -9888,6 +10963,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9897,6 +10973,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -9906,6 +10983,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9916,6 +10994,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_state'</t>
     </r>
@@ -9925,6 +11004,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -9934,6 +11014,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -9943,6 +11024,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -9953,6 +11035,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Fed. State"</t>
     </r>
@@ -9962,6 +11045,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -9976,6 +11060,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.One2many(</t>
     </r>
@@ -9986,6 +11071,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.partner.bank'</t>
     </r>
@@ -9995,6 +11081,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10005,6 +11092,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'company_id'</t>
     </r>
@@ -10014,6 +11102,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10023,6 +11112,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -10032,6 +11122,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10042,6 +11133,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Bank Accounts'</t>
     </r>
@@ -10051,6 +11143,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10060,6 +11153,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">help</t>
     </r>
@@ -10069,6 +11163,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10079,6 +11174,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'Bank accounts related to this company'</t>
     </r>
@@ -10088,6 +11184,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10102,6 +11199,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Many2one(</t>
     </r>
@@ -10112,6 +11210,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'res.country'</t>
     </r>
@@ -10121,6 +11220,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10130,6 +11230,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -10139,6 +11240,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10149,6 +11251,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -10158,6 +11261,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10167,6 +11271,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -10176,6 +11281,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10186,6 +11292,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_country'</t>
     </r>
@@ -10195,6 +11302,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10204,6 +11312,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -10213,6 +11322,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10223,6 +11333,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Country"</t>
     </r>
@@ -10232,6 +11343,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10246,6 +11358,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -10255,6 +11368,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -10264,6 +11378,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10274,6 +11389,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.email'</t>
     </r>
@@ -10283,6 +11399,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10292,6 +11409,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">store</t>
     </r>
@@ -10301,6 +11419,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10310,6 +11429,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -10319,6 +11439,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10333,6 +11454,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -10342,6 +11464,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -10351,6 +11474,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10361,6 +11485,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.phone'</t>
     </r>
@@ -10370,6 +11495,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10379,6 +11505,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">store</t>
     </r>
@@ -10388,6 +11515,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10397,6 +11525,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -10406,6 +11535,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10420,6 +11550,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -10429,6 +11560,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">compute</t>
     </r>
@@ -10438,6 +11570,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10448,6 +11581,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_compute_address'</t>
     </r>
@@ -10457,6 +11591,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10466,6 +11601,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">inverse</t>
     </r>
@@ -10475,6 +11611,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10485,6 +11622,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'_inverse_fax'</t>
     </r>
@@ -10494,6 +11632,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10508,6 +11647,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -10517,6 +11657,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -10526,6 +11667,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10536,6 +11678,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.website'</t>
     </r>
@@ -10545,6 +11688,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10559,6 +11703,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Char(</t>
     </r>
@@ -10568,6 +11713,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">related</t>
     </r>
@@ -10577,6 +11723,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10587,6 +11734,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'partner_id.vat'</t>
     </r>
@@ -10596,6 +11744,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10605,6 +11754,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -10614,6 +11764,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10624,6 +11775,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Tax ID"</t>
     </r>
@@ -10633,6 +11785,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10650,6 +11803,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fields.Selection([(</t>
     </r>
@@ -10660,6 +11814,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'a4'</t>
     </r>
@@ -10669,6 +11824,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10679,6 +11835,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'A4'</t>
     </r>
@@ -10688,6 +11845,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">), (</t>
     </r>
@@ -10698,6 +11856,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'us_letter'</t>
     </r>
@@ -10707,6 +11866,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10717,6 +11877,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'US Letter'</t>
     </r>
@@ -10726,6 +11887,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)], </t>
     </r>
@@ -10735,6 +11897,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">string</t>
     </r>
@@ -10744,6 +11907,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10754,6 +11918,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Paper Format"</t>
     </r>
@@ -10763,6 +11928,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10772,6 +11938,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">required</t>
     </r>
@@ -10781,6 +11948,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10790,6 +11958,7 @@
         <color rgb="FF000080"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">True</t>
     </r>
@@ -10799,6 +11968,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10808,6 +11978,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">default</t>
     </r>
@@ -10817,6 +11988,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10827,6 +11999,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'a4'</t>
     </r>
@@ -10836,6 +12009,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -10845,6 +12019,7 @@
         <color rgb="FF660099"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">oldname</t>
     </r>
@@ -10854,6 +12029,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=</t>
     </r>
@@ -10864,6 +12040,7 @@
         <color rgb="FF008000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">'paper_format'</t>
     </r>
@@ -10873,6 +12050,7 @@
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -10888,7 +12066,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -11085,17 +12263,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="DejaVu Sans Mono"/>
+      <color rgb="FF008080"/>
+      <name val="AR PL UKai CN"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -11105,36 +12278,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="9"/>
-      <color rgb="FF008080"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体-PUA"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF660099"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
     </font>
@@ -11154,7 +12299,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF660099"/>
       <name val="DejaVu Sans Mono"/>
       <family val="0"/>
     </font>
@@ -11162,8 +12307,31 @@
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF008000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-PUA"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -11180,25 +12348,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -11217,7 +12370,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11234,6 +12387,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF007FFF"/>
         <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -11284,7 +12443,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11429,20 +12588,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -11453,15 +12644,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11469,31 +12656,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11509,10 +12680,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11525,12 +12692,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -11541,31 +12712,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11577,12 +12736,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -11605,7 +12760,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11697,12 +12852,12 @@
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="C29 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
   </cols>
   <sheetData>
@@ -11763,7 +12918,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="C29 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12903,10 +14058,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="C29 D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12968,351 +14123,373 @@
       <c r="C4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="37"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18" t="s">
-        <v>20</v>
+      <c r="C5" s="17"/>
+      <c r="D5" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="65.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18" t="s">
-        <v>76</v>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="38" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="36" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="41" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="61.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="41"/>
+      <c r="F10" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="36" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="65.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="E16" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="18" t="s">
+      <c r="F16" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="19" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="18" t="s">
+      <c r="E17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" customFormat="false" ht="45.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="18" t="s">
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F26" s="49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="44"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="33"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
+    <row r="27" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="33"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="31"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="31"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="29"/>
       <c r="I31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="42"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="29"/>
       <c r="I32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="31"/>
       <c r="F33" s="30"/>
       <c r="G33" s="32"/>
@@ -13320,59 +14497,159 @@
       <c r="I33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="42"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="31"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="31"/>
       <c r="F34" s="30"/>
       <c r="G34" s="32"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="32"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="31"/>
       <c r="C36" s="30"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="32"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="31"/>
       <c r="C37" s="30"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="29"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="51"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="51"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="51"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="51"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="51"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="51"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="51"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+    </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13437,14 +14714,25 @@
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:A17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -13463,7 +14751,7 @@
   </sheetPr>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -13518,26 +14806,26 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>105</v>
+        <v>127</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="38" t="s">
-        <v>106</v>
+      <c r="B5" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="18" t="s">
@@ -13553,37 +14841,37 @@
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="38"/>
+        <v>130</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="18" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="18" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13591,13 +14879,13 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="18" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>116</v>
+        <v>138</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13605,49 +14893,49 @@
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="39"/>
+        <v>140</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="38"/>
+        <v>142</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="38"/>
+        <v>144</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13655,37 +14943,37 @@
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="38"/>
+        <v>148</v>
+      </c>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="18" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="38"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>130</v>
+        <v>152</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13693,13 +14981,13 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>133</v>
+        <v>155</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,7 +15000,7 @@
       <c r="E18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
@@ -13724,7 +15012,7 @@
       <c r="E19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="49" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13733,13 +15021,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>136</v>
+        <v>158</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,10 +15035,10 @@
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F21" s="14"/>
     </row>
@@ -13771,10 +15059,10 @@
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F23" s="14"/>
     </row>
@@ -13783,13 +15071,13 @@
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>143</v>
+        <v>165</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="29"/>
@@ -13800,13 +15088,13 @@
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>146</v>
+        <v>167</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>169</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="29"/>
@@ -13817,10 +15105,10 @@
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>148</v>
+        <v>170</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>171</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="32"/>
@@ -13832,20 +15120,20 @@
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>151</v>
+        <v>172</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>174</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="29"/>
       <c r="I27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="31"/>
       <c r="C28" s="30"/>
       <c r="D28" s="32"/>
@@ -13856,141 +15144,141 @@
       <c r="I28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>155</v>
+      <c r="A29" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="E29" s="16"/>
-      <c r="F29" s="52" t="s">
-        <v>156</v>
+      <c r="F29" s="45" t="s">
+        <v>179</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
       <c r="I29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="51" t="s">
-        <v>157</v>
+      <c r="D30" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="52" t="s">
-        <v>158</v>
+      <c r="F30" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="29"/>
       <c r="I30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="51" t="s">
-        <v>159</v>
+      <c r="D31" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="52" t="s">
-        <v>160</v>
+      <c r="F31" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="29"/>
       <c r="I31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
-      <c r="D32" s="51" t="s">
-        <v>161</v>
+      <c r="D32" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="52" t="s">
-        <v>162</v>
+      <c r="F32" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="29"/>
       <c r="I32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="51" t="s">
-        <v>163</v>
+      <c r="D33" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="52" t="s">
-        <v>164</v>
+      <c r="F33" s="45" t="s">
+        <v>187</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="29"/>
       <c r="I33" s="33"/>
     </row>
     <row r="34" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="49"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="51" t="s">
-        <v>165</v>
+      <c r="D34" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="52" t="s">
-        <v>166</v>
+      <c r="F34" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="51" t="s">
-        <v>167</v>
+      <c r="D35" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="E35" s="16"/>
-      <c r="F35" s="52" t="s">
-        <v>168</v>
+      <c r="F35" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="51" t="s">
-        <v>169</v>
+      <c r="D36" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="52" t="s">
-        <v>170</v>
+      <c r="F36" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="32.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="51" t="s">
-        <v>171</v>
+      <c r="D37" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="52" t="s">
-        <v>172</v>
+      <c r="F37" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="29"/>
@@ -14002,7 +15290,7 @@
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="53"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="32"/>
       <c r="H38" s="29"/>
       <c r="I38" s="30"/>
@@ -14012,8 +15300,10 @@
       <c r="B39" s="31"/>
       <c r="C39" s="30"/>
       <c r="D39" s="28"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="53"/>
+      <c r="E39" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="56"/>
       <c r="G39" s="32"/>
       <c r="H39" s="29"/>
       <c r="I39" s="33"/>
@@ -14024,7 +15314,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="28"/>
       <c r="E40" s="34"/>
-      <c r="F40" s="54"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="31"/>
       <c r="H40" s="29"/>
       <c r="I40" s="30"/>
@@ -14035,7 +15325,7 @@
       <c r="C41" s="30"/>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="53"/>
+      <c r="F41" s="56"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -14051,7 +15341,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="53"/>
+      <c r="F43" s="56"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
@@ -14059,7 +15349,7 @@
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="53"/>
+      <c r="F44" s="56"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
@@ -14645,7 +15935,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C29 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14699,16 +15989,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>176</v>
+        <v>198</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>21</v>
@@ -14717,16 +16007,16 @@
     </row>
     <row r="5" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>179</v>
+      <c r="D5" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14734,79 +16024,79 @@
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="18" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="51" t="s">
-        <v>180</v>
+      <c r="D7" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>181</v>
+        <v>133</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>183</v>
+      <c r="F8" s="45" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="51" t="s">
-        <v>184</v>
+      <c r="D9" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="38"/>
+        <v>209</v>
+      </c>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="39"/>
+      <c r="D10" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>190</v>
+      <c r="D11" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14819,7 +16109,7 @@
       <c r="E12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="64.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
@@ -14831,20 +16121,20 @@
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="49" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="31"/>
       <c r="C15" s="30"/>
       <c r="D15" s="28"/>
@@ -14852,7 +16142,7 @@
       <c r="F15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="57"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="31"/>
       <c r="C16" s="30"/>
       <c r="D16" s="28"/>
@@ -14860,7 +16150,7 @@
       <c r="F16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="31"/>
       <c r="C17" s="30"/>
       <c r="D17" s="28"/>
@@ -14868,51 +16158,51 @@
       <c r="F17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="31"/>
       <c r="C18" s="30"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="59"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="32"/>
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="57"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
       <c r="D19" s="32"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="59"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="32"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
-      <c r="E20" s="60"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32"/>
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="57"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="31"/>
       <c r="C21" s="30"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="32"/>
       <c r="H21" s="29"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="31"/>
       <c r="C22" s="30"/>
       <c r="D22" s="32"/>
@@ -14923,7 +16213,7 @@
       <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="61"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="31"/>
       <c r="C23" s="30"/>
       <c r="D23" s="32"/>
@@ -14934,7 +16224,7 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="31"/>
       <c r="C24" s="30"/>
       <c r="D24" s="32"/>
@@ -14945,7 +16235,7 @@
       <c r="I24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="61"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="34"/>
       <c r="C25" s="35"/>
       <c r="D25" s="31"/>
@@ -14956,7 +16246,7 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="28"/>
@@ -14967,7 +16257,7 @@
       <c r="I26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="61"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="31"/>
       <c r="C27" s="30"/>
       <c r="D27" s="32"/>
@@ -14978,7 +16268,7 @@
       <c r="I27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="48"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="31"/>
       <c r="C28" s="30"/>
       <c r="D28" s="32"/>
@@ -14989,7 +16279,7 @@
       <c r="I28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="61"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="31"/>
       <c r="C29" s="30"/>
       <c r="D29" s="32"/>
@@ -15000,7 +16290,7 @@
       <c r="I29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="61"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="31"/>
       <c r="C30" s="30"/>
       <c r="D30" s="32"/>
@@ -15011,7 +16301,7 @@
       <c r="I30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
       <c r="D31" s="31"/>
@@ -15151,7 +16441,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="C29 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15205,13 +16495,13 @@
     </row>
     <row r="4" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>193</v>
+        <v>215</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>27</v>
@@ -15219,93 +16509,93 @@
       <c r="E4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>194</v>
+      <c r="F4" s="66" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="52" t="s">
-        <v>195</v>
+      <c r="B5" s="45" t="s">
+        <v>219</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>196</v>
+      <c r="E5" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="66" t="s">
-        <v>198</v>
+      <c r="D6" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="64" t="s">
-        <v>199</v>
+      <c r="D7" s="43" t="s">
+        <v>223</v>
       </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="52" t="s">
-        <v>200</v>
+      <c r="F7" s="45" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="67" t="s">
-        <v>201</v>
+      <c r="D8" s="43" t="s">
+        <v>225</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="52" t="s">
-        <v>202</v>
+      <c r="F8" s="45" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="67" t="s">
-        <v>203</v>
+      <c r="D9" s="43" t="s">
+        <v>227</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F9" s="70" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15"/>
       <c r="B10" s="71"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="37" t="s">
-        <v>207</v>
+      <c r="D10" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -15315,38 +16605,38 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="12"/>
       <c r="D12" s="73"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="43.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="71"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="67" t="s">
-        <v>208</v>
+      <c r="D13" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="74" t="s">
-        <v>209</v>
+      <c r="F13" s="72" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="67" t="s">
-        <v>210</v>
+      <c r="D14" s="43" t="s">
+        <v>234</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="37" t="s">
-        <v>211</v>
+      <c r="F14" s="38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="31"/>
       <c r="C15" s="30"/>
       <c r="D15" s="32"/>
@@ -15357,7 +16647,7 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="31"/>
       <c r="C16" s="30"/>
       <c r="D16" s="32"/>
@@ -15368,7 +16658,7 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="48"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="31"/>
       <c r="C17" s="30"/>
       <c r="D17" s="32"/>
@@ -15379,7 +16669,7 @@
       <c r="I17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="34"/>
       <c r="C18" s="35"/>
       <c r="D18" s="31"/>
@@ -15390,7 +16680,7 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
@@ -15401,7 +16691,7 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="31"/>
       <c r="C20" s="30"/>
       <c r="D20" s="32"/>
@@ -15412,7 +16702,7 @@
       <c r="I20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="48"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="31"/>
       <c r="C21" s="30"/>
       <c r="D21" s="32"/>
@@ -15423,7 +16713,7 @@
       <c r="I21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="31"/>
       <c r="C22" s="30"/>
       <c r="D22" s="32"/>
@@ -15434,7 +16724,7 @@
       <c r="I22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="61"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="31"/>
       <c r="C23" s="30"/>
       <c r="D23" s="32"/>
@@ -15445,7 +16735,7 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="62"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="34"/>
       <c r="C24" s="35"/>
       <c r="D24" s="31"/>
@@ -15584,8 +16874,8 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="C29 E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15595,7 +16885,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="75" width="82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="74" width="82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="12.83"/>
   </cols>
   <sheetData>
@@ -15615,7 +16905,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="76"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -15633,40 +16923,40 @@
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="50"/>
+        <v>236</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="18" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="78"/>
+        <v>239</v>
+      </c>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
-      <c r="B5" s="52" t="s">
-        <v>216</v>
+      <c r="B5" s="45" t="s">
+        <v>240</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="18" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>217</v>
+        <v>110</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15674,13 +16964,13 @@
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="18" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="79" t="s">
-        <v>220</v>
+        <v>243</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15688,37 +16978,37 @@
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="D7" s="18" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="78"/>
+        <v>246</v>
+      </c>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="18" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="78"/>
+        <v>248</v>
+      </c>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" customFormat="false" ht="51.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="18" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>226</v>
+        <v>148</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15726,10 +17016,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="18" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="78"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
@@ -15741,58 +17031,58 @@
       <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>194</v>
+      <c r="F11" s="66" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>229</v>
+        <v>252</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="67" t="s">
-        <v>230</v>
+      <c r="D13" s="43" t="s">
+        <v>254</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="52" t="s">
-        <v>231</v>
+      <c r="F13" s="45" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="52" t="s">
-        <v>233</v>
+      <c r="D14" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="45" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="52" t="s">
-        <v>235</v>
+      <c r="D15" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="29"/>
@@ -15802,12 +17092,12 @@
       <c r="A16" s="15"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="67" t="s">
-        <v>236</v>
+      <c r="D16" s="43" t="s">
+        <v>260</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="52" t="s">
-        <v>237</v>
+      <c r="F16" s="45" t="s">
+        <v>261</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
@@ -15817,14 +17107,14 @@
       <c r="A17" s="15"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>240</v>
+      <c r="D17" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>264</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="29"/>
@@ -15834,12 +17124,12 @@
       <c r="A18" s="15"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="67" t="s">
-        <v>241</v>
+      <c r="D18" s="43" t="s">
+        <v>265</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="52" t="s">
-        <v>242</v>
+      <c r="F18" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="29"/>
@@ -15849,12 +17139,12 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="52" t="s">
-        <v>244</v>
+      <c r="D19" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="45" t="s">
+        <v>268</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="29"/>
@@ -15864,12 +17154,12 @@
       <c r="A20" s="15"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="67" t="s">
-        <v>245</v>
+      <c r="D20" s="43" t="s">
+        <v>269</v>
       </c>
       <c r="E20" s="19"/>
-      <c r="F20" s="52" t="s">
-        <v>246</v>
+      <c r="F20" s="45" t="s">
+        <v>270</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="29"/>
@@ -15879,12 +17169,12 @@
       <c r="A21" s="15"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="67" t="s">
-        <v>247</v>
+      <c r="D21" s="43" t="s">
+        <v>271</v>
       </c>
       <c r="E21" s="19"/>
-      <c r="F21" s="52" t="s">
-        <v>248</v>
+      <c r="F21" s="45" t="s">
+        <v>272</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="29"/>
@@ -15894,12 +17184,12 @@
       <c r="A22" s="15"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="50"/>
+      <c r="D22" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="16"/>
       <c r="F22" s="72" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
@@ -15909,12 +17199,12 @@
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="67" t="s">
-        <v>251</v>
+      <c r="D23" s="43" t="s">
+        <v>275</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="72" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="29"/>
@@ -15924,12 +17214,12 @@
       <c r="A24" s="15"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="67" t="s">
-        <v>227</v>
+      <c r="D24" s="43" t="s">
+        <v>251</v>
       </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="52" t="s">
-        <v>253</v>
+      <c r="F24" s="45" t="s">
+        <v>277</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="29"/>
@@ -15939,12 +17229,12 @@
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="67" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="52" t="s">
-        <v>255</v>
+      <c r="D25" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="29"/>
@@ -15954,14 +17244,14 @@
       <c r="A26" s="15"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>257</v>
+      <c r="D26" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>281</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="29"/>
@@ -15971,12 +17261,12 @@
       <c r="A27" s="15"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="67" t="s">
-        <v>258</v>
+      <c r="D27" s="43" t="s">
+        <v>282</v>
       </c>
       <c r="E27" s="19"/>
-      <c r="F27" s="52" t="s">
-        <v>259</v>
+      <c r="F27" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="29"/>
@@ -15986,189 +17276,189 @@
       <c r="A28" s="15"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="52" t="s">
-        <v>261</v>
+      <c r="D28" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="45" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="67" t="s">
-        <v>262</v>
+      <c r="D29" s="43" t="s">
+        <v>286</v>
       </c>
       <c r="E29" s="19"/>
-      <c r="F29" s="37" t="s">
-        <v>263</v>
+      <c r="F29" s="38" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="37" t="s">
-        <v>265</v>
+      <c r="D30" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="67" t="s">
-        <v>266</v>
+      <c r="D31" s="43" t="s">
+        <v>290</v>
       </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="52" t="s">
-        <v>267</v>
+      <c r="F31" s="45" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="67" t="s">
-        <v>268</v>
+      <c r="D32" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="F32" s="52" t="s">
-        <v>269</v>
+      <c r="F32" s="45" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="52" t="s">
-        <v>271</v>
+      <c r="D33" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="45" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="52" t="s">
-        <v>273</v>
+      <c r="D34" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="45" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="67" t="s">
-        <v>274</v>
+      <c r="D35" s="43" t="s">
+        <v>298</v>
       </c>
       <c r="E35" s="19"/>
-      <c r="F35" s="52" t="s">
-        <v>275</v>
+      <c r="F35" s="45" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="52" t="s">
-        <v>277</v>
+      <c r="D36" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="45" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="67" t="s">
-        <v>278</v>
+      <c r="D37" s="43" t="s">
+        <v>302</v>
       </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="52" t="s">
-        <v>279</v>
+      <c r="F37" s="45" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="67" t="s">
-        <v>280</v>
+      <c r="D38" s="43" t="s">
+        <v>304</v>
       </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="52" t="s">
-        <v>281</v>
+      <c r="F38" s="45" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="67" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="52" t="s">
-        <v>283</v>
+      <c r="D39" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="45" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="52" t="s">
-        <v>285</v>
+      <c r="D40" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="45" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="67" t="s">
-        <v>286</v>
+      <c r="D41" s="43" t="s">
+        <v>310</v>
       </c>
       <c r="E41" s="19"/>
-      <c r="F41" s="52"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="52" t="s">
-        <v>288</v>
+      <c r="D42" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="45" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="52"/>
+      <c r="D43" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E43" s="58"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
@@ -16232,7 +17522,7 @@
       <c r="C51" s="30"/>
       <c r="D51" s="32"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="81"/>
+      <c r="F51" s="80"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
@@ -16240,7 +17530,7 @@
       <c r="C52" s="30"/>
       <c r="D52" s="32"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="81"/>
+      <c r="F52" s="80"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
@@ -16248,7 +17538,7 @@
       <c r="C53" s="30"/>
       <c r="D53" s="32"/>
       <c r="E53" s="31"/>
-      <c r="F53" s="82"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -16256,7 +17546,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
-      <c r="F54" s="81"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
@@ -16264,7 +17554,7 @@
       <c r="C55" s="27"/>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
-      <c r="F55" s="81"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
@@ -16272,7 +17562,7 @@
       <c r="C56" s="30"/>
       <c r="D56" s="32"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="81"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
@@ -16280,7 +17570,7 @@
       <c r="C57" s="30"/>
       <c r="D57" s="32"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="81"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
@@ -16288,7 +17578,7 @@
       <c r="C58" s="30"/>
       <c r="D58" s="32"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="81"/>
+      <c r="F58" s="80"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
@@ -16296,7 +17586,7 @@
       <c r="C59" s="30"/>
       <c r="D59" s="32"/>
       <c r="E59" s="31"/>
-      <c r="F59" s="82"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
@@ -16304,7 +17594,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
-      <c r="F60" s="81"/>
+      <c r="F60" s="80"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
@@ -16312,7 +17602,7 @@
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
-      <c r="F61" s="81"/>
+      <c r="F61" s="80"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
@@ -16320,7 +17610,7 @@
       <c r="C62" s="30"/>
       <c r="D62" s="32"/>
       <c r="E62" s="29"/>
-      <c r="F62" s="81"/>
+      <c r="F62" s="80"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
@@ -16328,7 +17618,7 @@
       <c r="C63" s="30"/>
       <c r="D63" s="32"/>
       <c r="E63" s="29"/>
-      <c r="F63" s="81"/>
+      <c r="F63" s="80"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
@@ -16336,7 +17626,7 @@
       <c r="C64" s="30"/>
       <c r="D64" s="32"/>
       <c r="E64" s="29"/>
-      <c r="F64" s="81"/>
+      <c r="F64" s="80"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
@@ -16344,7 +17634,7 @@
       <c r="C65" s="30"/>
       <c r="D65" s="32"/>
       <c r="E65" s="31"/>
-      <c r="F65" s="82"/>
+      <c r="F65" s="81"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
@@ -16352,7 +17642,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
-      <c r="F66" s="81"/>
+      <c r="F66" s="80"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
@@ -16360,7 +17650,7 @@
       <c r="C67" s="27"/>
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
-      <c r="F67" s="81"/>
+      <c r="F67" s="80"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
@@ -16368,7 +17658,7 @@
       <c r="C68" s="30"/>
       <c r="D68" s="32"/>
       <c r="E68" s="29"/>
-      <c r="F68" s="81"/>
+      <c r="F68" s="80"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
@@ -16376,7 +17666,7 @@
       <c r="C69" s="30"/>
       <c r="D69" s="32"/>
       <c r="E69" s="29"/>
-      <c r="F69" s="81"/>
+      <c r="F69" s="80"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
@@ -16384,7 +17674,7 @@
       <c r="C70" s="30"/>
       <c r="D70" s="32"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="81"/>
+      <c r="F70" s="80"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
@@ -16392,7 +17682,7 @@
       <c r="C71" s="30"/>
       <c r="D71" s="32"/>
       <c r="E71" s="31"/>
-      <c r="F71" s="82"/>
+      <c r="F71" s="81"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
@@ -16400,7 +17690,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
-      <c r="F72" s="81"/>
+      <c r="F72" s="80"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
@@ -16408,7 +17698,7 @@
       <c r="C73" s="27"/>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="81"/>
+      <c r="F73" s="80"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
@@ -16416,7 +17706,7 @@
       <c r="C74" s="30"/>
       <c r="D74" s="32"/>
       <c r="E74" s="29"/>
-      <c r="F74" s="81"/>
+      <c r="F74" s="80"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
@@ -16424,7 +17714,7 @@
       <c r="C75" s="30"/>
       <c r="D75" s="32"/>
       <c r="E75" s="29"/>
-      <c r="F75" s="81"/>
+      <c r="F75" s="80"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
@@ -16432,7 +17722,7 @@
       <c r="C76" s="30"/>
       <c r="D76" s="32"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="81"/>
+      <c r="F76" s="80"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
@@ -16440,7 +17730,7 @@
       <c r="C77" s="30"/>
       <c r="D77" s="32"/>
       <c r="E77" s="31"/>
-      <c r="F77" s="82"/>
+      <c r="F77" s="81"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
@@ -16448,7 +17738,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
-      <c r="F78" s="81"/>
+      <c r="F78" s="80"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
@@ -16456,7 +17746,7 @@
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="29"/>
-      <c r="F79" s="81"/>
+      <c r="F79" s="80"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
@@ -16464,7 +17754,7 @@
       <c r="C80" s="30"/>
       <c r="D80" s="32"/>
       <c r="E80" s="29"/>
-      <c r="F80" s="81"/>
+      <c r="F80" s="80"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
@@ -16472,7 +17762,7 @@
       <c r="C81" s="30"/>
       <c r="D81" s="32"/>
       <c r="E81" s="29"/>
-      <c r="F81" s="81"/>
+      <c r="F81" s="80"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
@@ -16480,7 +17770,7 @@
       <c r="C82" s="30"/>
       <c r="D82" s="32"/>
       <c r="E82" s="29"/>
-      <c r="F82" s="81"/>
+      <c r="F82" s="80"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
@@ -16488,7 +17778,7 @@
       <c r="C83" s="30"/>
       <c r="D83" s="32"/>
       <c r="E83" s="31"/>
-      <c r="F83" s="82"/>
+      <c r="F83" s="81"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
@@ -16496,7 +17786,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
-      <c r="F84" s="81"/>
+      <c r="F84" s="80"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
@@ -16504,7 +17794,7 @@
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
       <c r="E85" s="29"/>
-      <c r="F85" s="81"/>
+      <c r="F85" s="80"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
@@ -16512,7 +17802,7 @@
       <c r="C86" s="30"/>
       <c r="D86" s="32"/>
       <c r="E86" s="29"/>
-      <c r="F86" s="81"/>
+      <c r="F86" s="80"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
@@ -16520,7 +17810,7 @@
       <c r="C87" s="30"/>
       <c r="D87" s="32"/>
       <c r="E87" s="29"/>
-      <c r="F87" s="81"/>
+      <c r="F87" s="80"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
@@ -16528,7 +17818,7 @@
       <c r="C88" s="30"/>
       <c r="D88" s="32"/>
       <c r="E88" s="29"/>
-      <c r="F88" s="81"/>
+      <c r="F88" s="80"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
@@ -16536,7 +17826,7 @@
       <c r="C89" s="30"/>
       <c r="D89" s="32"/>
       <c r="E89" s="31"/>
-      <c r="F89" s="82"/>
+      <c r="F89" s="81"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
@@ -16544,7 +17834,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
-      <c r="F90" s="81"/>
+      <c r="F90" s="80"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
@@ -16552,7 +17842,7 @@
       <c r="C91" s="27"/>
       <c r="D91" s="28"/>
       <c r="E91" s="29"/>
-      <c r="F91" s="81"/>
+      <c r="F91" s="80"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
@@ -16560,7 +17850,7 @@
       <c r="C92" s="30"/>
       <c r="D92" s="32"/>
       <c r="E92" s="29"/>
-      <c r="F92" s="81"/>
+      <c r="F92" s="80"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
@@ -16568,7 +17858,7 @@
       <c r="C93" s="30"/>
       <c r="D93" s="32"/>
       <c r="E93" s="29"/>
-      <c r="F93" s="81"/>
+      <c r="F93" s="80"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
@@ -16576,7 +17866,7 @@
       <c r="C94" s="30"/>
       <c r="D94" s="32"/>
       <c r="E94" s="29"/>
-      <c r="F94" s="81"/>
+      <c r="F94" s="80"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
@@ -16584,7 +17874,7 @@
       <c r="C95" s="30"/>
       <c r="D95" s="32"/>
       <c r="E95" s="31"/>
-      <c r="F95" s="82"/>
+      <c r="F95" s="81"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
@@ -16592,7 +17882,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
-      <c r="F96" s="81"/>
+      <c r="F96" s="80"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
@@ -16600,7 +17890,7 @@
       <c r="C97" s="27"/>
       <c r="D97" s="28"/>
       <c r="E97" s="29"/>
-      <c r="F97" s="81"/>
+      <c r="F97" s="80"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
@@ -16608,7 +17898,7 @@
       <c r="C98" s="30"/>
       <c r="D98" s="32"/>
       <c r="E98" s="29"/>
-      <c r="F98" s="81"/>
+      <c r="F98" s="80"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
@@ -16616,7 +17906,7 @@
       <c r="C99" s="30"/>
       <c r="D99" s="32"/>
       <c r="E99" s="29"/>
-      <c r="F99" s="81"/>
+      <c r="F99" s="80"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
@@ -16624,7 +17914,7 @@
       <c r="C100" s="30"/>
       <c r="D100" s="32"/>
       <c r="E100" s="29"/>
-      <c r="F100" s="81"/>
+      <c r="F100" s="80"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
@@ -16632,7 +17922,7 @@
       <c r="C101" s="30"/>
       <c r="D101" s="32"/>
       <c r="E101" s="31"/>
-      <c r="F101" s="82"/>
+      <c r="F101" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
